--- a/Team24.xlsx
+++ b/Team24.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nizam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps00557774\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7141C1-F978-416C-ABA9-AF770B9BB63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{26795F7B-387D-4874-8FD6-2A940D59AC90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>S/No</t>
   </si>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,26 +577,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECF67A4-4555-4723-B792-AEBC21E3AB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5234375" customWidth="1"/>
-    <col min="2" max="2" width="22.89453125" customWidth="1"/>
-    <col min="3" max="3" width="38.3671875" customWidth="1"/>
-    <col min="4" max="4" width="46.47265625" customWidth="1"/>
-    <col min="5" max="5" width="11.1015625" customWidth="1"/>
-    <col min="6" max="6" width="13.20703125" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" customWidth="1"/>
-    <col min="9" max="9" width="12.68359375" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -646,7 +646,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -703,7 +703,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -719,11 +719,17 @@
       <c r="E6" t="s">
         <v>50</v>
       </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="4">
         <v>43997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -740,7 +746,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -760,7 +766,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -776,11 +782,17 @@
       <c r="E9" t="s">
         <v>50</v>
       </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
       <c r="I9" s="4">
         <v>43998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -800,7 +812,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -817,7 +829,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -834,7 +846,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -851,7 +863,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -868,7 +880,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -885,7 +897,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -902,7 +914,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -918,8 +930,14 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -932,11 +950,20 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
       <c r="I18" s="4">
         <v>44000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -953,7 +980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -967,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -981,7 +1008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -995,7 +1022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1023,7 +1050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1038,7 +1065,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I25" xr:uid="{4CE2127F-EEB7-4584-87D9-6E81884C10D2}"/>
+  <autoFilter ref="A1:I25">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Madhuri"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
